--- a/BA桃绿模组卡牌设计.xlsx
+++ b/BA桃绿模组卡牌设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22308\Documents\JavaProjects\blue_archive_mod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F4E51D-D16D-481E-A8D5-49F449E45EE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69584C6D-1602-4EB9-A292-723D7FBE8717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="676" uniqueCount="303">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="330">
   <si>
     <t>灼伤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -605,26 +605,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>4伤x2。手牌增加1张交换后的复制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6x2，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>受到的伤害增加1，造成的伤害减少1，受到伤害时增加1层，回合结束减少一半</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>随机获得2力量，2敏捷，2易伤，2虚弱，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加一个选项，提升等级1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>回合开始时，抽牌堆随机状态或诅咒消耗，消耗漏洞时，获得5经验</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -953,10 +937,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>领头前进</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>选择一张攻击牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1107,30 +1087,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>返回抽牌堆</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>12伤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>获得5经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>7经验值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6防，各获得1费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>10防</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>共有，全体10伤，下回合结束打出一次复制。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1155,117 +1115,268 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>冒险-历练</t>
+  </si>
+  <si>
+    <t>冒险-密道</t>
+  </si>
+  <si>
+    <t>冒险-争吵</t>
+  </si>
+  <si>
+    <t>冒险-决战</t>
+  </si>
+  <si>
+    <t>冒险-祝福</t>
+  </si>
+  <si>
+    <t>冒险-结局</t>
+  </si>
+  <si>
+    <t>将1张冒险-开幕加入抽牌堆，若这张牌由冒险开幕的效果打出且位于第10张以后，获得战斗胜利</t>
+  </si>
+  <si>
+    <t>两张冒险开幕</t>
+  </si>
+  <si>
+    <t>冒险-掩护</t>
+  </si>
+  <si>
+    <t>冒险-奖励</t>
+  </si>
+  <si>
+    <t>冒险-休息</t>
+  </si>
+  <si>
+    <t>获得2金属化，获得1残影，造成全体3中毒，抽2.提升格挡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒气弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给予9毒，触发灼伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>触发2次灼伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火上浇油</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12伤，触发1次灼伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>16伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>招募伙伴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被效果打出的牌全部升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冒险-强化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>依次打出其他能打出的手牌并消耗，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成15伤，打出的上一张牌是冒险牌，伤害翻倍。消耗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光速打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共有。每次打出牌后，若手牌全是桃牌或全是绿牌，获得2格挡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>防守与打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1药</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机一项：获得5经验值，恢复3生命，1费抽2，强化手牌，消耗。上张是冒险牌，获得随机2项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓄力打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9伤，增加3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6伤，每打出1次打击牌这场战斗伤害增加2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平A流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打击牌变为共有。每回抽排队随机打击加手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有打击牌时洗牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新机制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>借用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗另一个颜色的能量时获得额外效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>连击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被其他牌打出时触发的效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被交换后改变效果，或触发额外效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交替进攻</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>15防，至多2张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色扮演</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有牌变为和这张牌相同的颜色，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>身份交换</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重复操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这张牌在手牌时打出手牌时将那张牌的桃牌复制加入手牌，获得虚无，消耗。交换自身。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换并抽1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂时援助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在弃牌堆时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>切换打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选1张牌返回抽牌堆，手牌加入交换后的复制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换桃牌后减1费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交换1手牌。那张牌打出后变回原颜色。在抽牌堆和弃牌堆打空绿能量时加入手牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得3费抽2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机冒险牌加手，变为0费，消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>将一张手牌变为冒险牌。消耗</t>
-  </si>
-  <si>
-    <t>冒险-历练</t>
-  </si>
-  <si>
-    <t>每回合开始，加手随机冒险牌</t>
-  </si>
-  <si>
-    <t>冒险-密道</t>
-  </si>
-  <si>
-    <t>抽牌堆检索1冒险。</t>
-  </si>
-  <si>
-    <t>冒险-争吵</t>
-  </si>
-  <si>
-    <t>冒险-决战</t>
-  </si>
-  <si>
-    <t>冒险-祝福</t>
-  </si>
-  <si>
-    <t>冒险-结局</t>
-  </si>
-  <si>
-    <t>将1张冒险-开幕加入抽牌堆，若这张牌由冒险开幕的效果打出且位于第10张以后，获得战斗胜利</t>
-  </si>
-  <si>
-    <t>两张冒险开幕</t>
-  </si>
-  <si>
-    <t>冒险-掩护</t>
-  </si>
-  <si>
-    <t>冒险-奖励</t>
-  </si>
-  <si>
-    <t>冒险-休息</t>
-  </si>
-  <si>
-    <t>共有。选择手牌一张冒险牌消耗，本场战斗打出这张牌后自动打出消耗的冒险牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>获得2金属化，获得1残影，造成全体3中毒，抽2.提升格挡。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒气弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>给予9毒，触发灼伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>触发2次灼伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火上浇油</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>12伤，触发1次灼伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>16伤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>招募伙伴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被效果打出的牌全部升级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冒险-强化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3费</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>依次打出其他能打出的手牌并消耗，消耗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>造成15伤，打出的上一张牌是冒险牌，伤害翻倍。消耗。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光速打击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>共有。每次打出牌后，若手牌全是桃牌或全是绿牌，获得2格挡。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>能力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>防守与打击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留。选择手牌一张冒险牌消耗，本场战斗打出这张牌后自动打出消耗的冒险牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>共有</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>9伤，手牌加一张该牌交换后的复制。被其他牌打出后，打出抽牌堆一张同名绿牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>13伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>12防，交换抽牌堆至多1张牌，消耗。上一张是冒险牌，升级选择的那张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得2费，抽1。上一张是冒险牌，获得2绿费。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽1，打出其中的桃牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预见2，抽1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得随机绿牌。获得消耗，虚无。交换自身。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获得消耗，保留</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1365,7 +1476,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1377,6 +1488,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -1657,10 +1769,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O93"/>
+  <dimension ref="A1:O100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1694,7 +1806,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
@@ -1726,7 +1838,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K2" t="s">
         <v>61</v>
@@ -1761,19 +1873,19 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K3">
-        <f>COUNTA(A2:A100)</f>
-        <v>92</v>
+        <f>COUNTA(A2:A300)</f>
+        <v>99</v>
       </c>
       <c r="L3">
-        <f>COUNTIF(B2:B100,B2)</f>
-        <v>45</v>
+        <f>COUNTIF(B2:B300,B2)</f>
+        <v>48</v>
       </c>
       <c r="M3">
-        <f>COUNTIF(B2:B100,B3)</f>
-        <v>44</v>
+        <f>COUNTIF(B2:B300,B3)</f>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1799,7 +1911,7 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K4" t="s">
         <v>64</v>
@@ -1834,18 +1946,18 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K5">
-        <f>COUNTIF(C2:C100,C2)</f>
-        <v>31</v>
+        <f>COUNTIF(C2:C300,C2)</f>
+        <v>32</v>
       </c>
       <c r="L5">
-        <f>COUNTIF(C2:C100,C4)</f>
-        <v>47</v>
+        <f>COUNTIF(C2:C300,C4)</f>
+        <v>53</v>
       </c>
       <c r="M5">
-        <f>COUNTIF(C2:C100,C10)</f>
+        <f>COUNTIF(C2:C300,C10)</f>
         <v>13</v>
       </c>
     </row>
@@ -1872,7 +1984,7 @@
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K6" t="s">
         <v>67</v>
@@ -1913,26 +2025,26 @@
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K7">
-        <f>COUNTIF(D2:D100,0)</f>
-        <v>9</v>
+        <f>COUNTIF(D2:D300,0)</f>
+        <v>14</v>
       </c>
       <c r="L7">
-        <f>COUNTIF(D2:D100,1)</f>
-        <v>39</v>
+        <f>COUNTIF(D2:D300,1)</f>
+        <v>42</v>
       </c>
       <c r="M7">
-        <f>COUNTIF(D2:D100,2)</f>
-        <v>36</v>
+        <f>COUNTIF(D2:D300,2)</f>
+        <v>35</v>
       </c>
       <c r="N7">
-        <f>COUNTIF(D2:D100,3)</f>
+        <f>COUNTIF(D2:D300,3)</f>
         <v>3</v>
       </c>
       <c r="O7">
-        <f>COUNTIFS(D2:D100,"&lt;&gt;0",D2:D100,"&lt;&gt;1",D2:D100,"&lt;&gt;2",D2:D100,"&lt;&gt;3",D2:D100,"&lt;&gt;")</f>
+        <f>COUNTIFS(D2:D300,"&lt;&gt;0",D2:D300,"&lt;&gt;1",D2:D300,"&lt;&gt;2",D2:D300,"&lt;&gt;3",D2:D300,"&lt;&gt;")</f>
         <v>4</v>
       </c>
     </row>
@@ -1959,7 +2071,7 @@
         <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K8" t="s">
         <v>72</v>
@@ -1997,22 +2109,22 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
       <c r="K9">
-        <f>COUNTIF(E2:E100,"初始")</f>
+        <f>COUNTIF(E2:E300,"初始")</f>
         <v>7</v>
       </c>
       <c r="L9">
-        <f>COUNTIF(E2:E100,"普通")</f>
-        <v>23</v>
+        <f>COUNTIF(E2:E300,"普通")</f>
+        <v>24</v>
       </c>
       <c r="M9">
-        <f>COUNTIF(E2:E100,"罕见")</f>
-        <v>44</v>
+        <f>COUNTIF(E2:E300,"罕见")</f>
+        <v>50</v>
       </c>
       <c r="N9">
-        <f>COUNTIF(E2:E100,"稀有")</f>
+        <f>COUNTIF(E2:E300,"稀有")</f>
         <v>17</v>
       </c>
     </row>
@@ -2039,13 +2151,13 @@
         <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K10" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="L10" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2071,15 +2183,15 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
       <c r="K11">
-        <f>COUNTIF(H2:H100,"是")</f>
-        <v>29</v>
+        <f>COUNTIF(H2:H300,"是")</f>
+        <v>33</v>
       </c>
       <c r="L11">
-        <f>COUNTIF(H2:H100,"否")</f>
-        <v>61</v>
+        <f>COUNTIF(H2:H300,"否")</f>
+        <v>62</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.2">
@@ -2105,7 +2217,7 @@
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -2131,7 +2243,7 @@
         <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -2157,7 +2269,7 @@
         <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2183,7 +2295,7 @@
         <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2209,7 +2321,7 @@
         <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2235,7 +2347,7 @@
         <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2255,13 +2367,13 @@
         <v>34</v>
       </c>
       <c r="F18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="G18" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -2287,7 +2399,7 @@
         <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -2313,7 +2425,7 @@
         <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2339,12 +2451,12 @@
         <v>90</v>
       </c>
       <c r="H21" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -2365,7 +2477,7 @@
         <v>93</v>
       </c>
       <c r="H22" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2391,7 +2503,7 @@
         <v>96</v>
       </c>
       <c r="H23" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2417,7 +2529,7 @@
         <v>97</v>
       </c>
       <c r="H24" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2443,7 +2555,7 @@
         <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -2469,7 +2581,7 @@
         <v>106</v>
       </c>
       <c r="H26" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2492,7 +2604,7 @@
         <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2518,7 +2630,7 @@
         <v>109</v>
       </c>
       <c r="H28" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2544,7 +2656,7 @@
         <v>114</v>
       </c>
       <c r="H29" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2564,13 +2676,13 @@
         <v>34</v>
       </c>
       <c r="F30" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="G30" t="s">
         <v>96</v>
       </c>
       <c r="H30" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2596,33 +2708,33 @@
         <v>119</v>
       </c>
       <c r="H31" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
+      <c r="A32" s="9" t="s">
         <v>120</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>20</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D32" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>34</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>132</v>
+        <v>326</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>133</v>
+        <v>327</v>
       </c>
       <c r="H32" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2648,7 +2760,7 @@
         <v>123</v>
       </c>
       <c r="H33" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2674,7 +2786,7 @@
         <v>126</v>
       </c>
       <c r="H34" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2694,17 +2806,17 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="G35" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H35" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A36" t="s">
+      <c r="A36" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B36" t="s">
@@ -2720,18 +2832,18 @@
         <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>135</v>
+        <v>328</v>
       </c>
       <c r="G36" t="s">
-        <v>136</v>
+        <v>329</v>
       </c>
       <c r="H36" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A37" s="6" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B37" t="s">
         <v>16</v>
@@ -2746,18 +2858,18 @@
         <v>41</v>
       </c>
       <c r="F37" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="G37" t="s">
         <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A38" s="4" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B38" t="s">
         <v>20</v>
@@ -2772,18 +2884,18 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="G38" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="H38" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A39" s="6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B39" t="s">
         <v>20</v>
@@ -2798,18 +2910,18 @@
         <v>34</v>
       </c>
       <c r="F39" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="G39" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H39" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A40" s="6" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B40" t="s">
         <v>20</v>
@@ -2824,18 +2936,18 @@
         <v>34</v>
       </c>
       <c r="F40" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G40" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H40" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B41" t="s">
         <v>20</v>
@@ -2850,18 +2962,18 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G41" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H41" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="B42" t="s">
         <v>16</v>
@@ -2876,18 +2988,18 @@
         <v>34</v>
       </c>
       <c r="F42" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="H42" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="B43" t="s">
         <v>20</v>
@@ -2902,18 +3014,18 @@
         <v>34</v>
       </c>
       <c r="F43" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>286</v>
+        <v>272</v>
       </c>
       <c r="H43" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B44" t="s">
         <v>16</v>
@@ -2928,18 +3040,18 @@
         <v>34</v>
       </c>
       <c r="F44" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="G44" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="H44" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A45" s="6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B45" t="s">
         <v>20</v>
@@ -2954,18 +3066,18 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="G45" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H45" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -2980,18 +3092,18 @@
         <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="G46" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="H46" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B47" t="s">
         <v>16</v>
@@ -3006,18 +3118,18 @@
         <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G47" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H47" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" s="6" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B48" t="s">
         <v>20</v>
@@ -3032,18 +3144,18 @@
         <v>34</v>
       </c>
       <c r="F48" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="G48" t="s">
         <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B49" t="s">
         <v>16</v>
@@ -3058,18 +3170,18 @@
         <v>34</v>
       </c>
       <c r="F49" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G49" t="s">
         <v>81</v>
       </c>
       <c r="H49" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" s="4" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B50" t="s">
         <v>16</v>
@@ -3084,18 +3196,18 @@
         <v>34</v>
       </c>
       <c r="F50" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G50" t="s">
         <v>55</v>
       </c>
       <c r="H50" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A51" s="4" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="B51" t="s">
         <v>16</v>
@@ -3110,18 +3222,18 @@
         <v>34</v>
       </c>
       <c r="F51" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="G51" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H51" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="B52" t="s">
         <v>16</v>
@@ -3136,18 +3248,18 @@
         <v>34</v>
       </c>
       <c r="F52" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G52" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="H52" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B53" t="s">
         <v>20</v>
@@ -3162,18 +3274,18 @@
         <v>34</v>
       </c>
       <c r="F53" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="G53" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="H53" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A54" t="s">
-        <v>182</v>
+      <c r="A54" s="6" t="s">
+        <v>178</v>
       </c>
       <c r="B54" t="s">
         <v>16</v>
@@ -3188,18 +3300,18 @@
         <v>34</v>
       </c>
       <c r="F54" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="G54" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="H54" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
@@ -3214,18 +3326,18 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="G55" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="H55" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -3240,24 +3352,24 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="G56" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="H56" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>301</v>
+        <v>287</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3266,18 +3378,18 @@
         <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>300</v>
+        <v>286</v>
       </c>
       <c r="G57" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="H57" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
@@ -3292,18 +3404,18 @@
         <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="G58" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="H58" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
@@ -3318,18 +3430,18 @@
         <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G59" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="H59" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -3344,18 +3456,18 @@
         <v>34</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="G60" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="H60" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" t="s">
-        <v>201</v>
+      <c r="A61" s="4" t="s">
+        <v>197</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -3370,18 +3482,18 @@
         <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="G61" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H61" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
@@ -3396,18 +3508,18 @@
         <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="G62" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="H62" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
@@ -3422,18 +3534,18 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G63" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="H63" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
@@ -3448,18 +3560,18 @@
         <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="G64" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="H64" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
@@ -3468,24 +3580,24 @@
         <v>17</v>
       </c>
       <c r="D65">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E65" t="s">
         <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="G65" t="s">
         <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -3494,24 +3606,24 @@
         <v>22</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E66" t="s">
         <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="G66" t="s">
         <v>24</v>
       </c>
       <c r="H66" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -3526,18 +3638,18 @@
         <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="G67" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="H67" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A68" t="s">
-        <v>220</v>
+      <c r="A68" s="6" t="s">
+        <v>303</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
@@ -3552,18 +3664,18 @@
         <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="G68" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="H68" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
@@ -3578,18 +3690,18 @@
         <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="G69" t="s">
         <v>55</v>
       </c>
       <c r="H69" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>302</v>
+        <v>288</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
@@ -3604,18 +3716,18 @@
         <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="G70" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="H70" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
@@ -3630,18 +3742,18 @@
         <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="G71" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="H71" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
@@ -3656,18 +3768,18 @@
         <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G72" t="s">
         <v>42</v>
       </c>
       <c r="H72" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
@@ -3682,18 +3794,18 @@
         <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G73" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="H73" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>299</v>
+        <v>285</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
@@ -3708,18 +3820,18 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="G74" t="s">
         <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -3734,18 +3846,18 @@
         <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="G75" t="s">
         <v>96</v>
       </c>
       <c r="H75" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>250</v>
+        <v>245</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
@@ -3760,18 +3872,18 @@
         <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>251</v>
+        <v>246</v>
       </c>
       <c r="G76" t="s">
-        <v>252</v>
+        <v>247</v>
       </c>
       <c r="H76" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>253</v>
+        <v>248</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
@@ -3786,18 +3898,18 @@
         <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G77" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="H77" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -3812,18 +3924,18 @@
         <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="G78" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="H78" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
@@ -3838,18 +3950,18 @@
         <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>285</v>
+        <v>320</v>
       </c>
       <c r="G79" t="s">
-        <v>259</v>
+        <v>321</v>
       </c>
       <c r="H79" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
@@ -3864,18 +3976,18 @@
         <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>298</v>
+        <v>284</v>
       </c>
       <c r="G80" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="H80" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A81" t="s">
-        <v>283</v>
+      <c r="A81" s="6" t="s">
+        <v>270</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
@@ -3884,24 +3996,24 @@
         <v>22</v>
       </c>
       <c r="D81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E81" t="s">
         <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>261</v>
+        <v>290</v>
       </c>
       <c r="G81" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="H81" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
@@ -3916,18 +4028,18 @@
         <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>263</v>
+        <v>324</v>
       </c>
       <c r="G82" t="s">
-        <v>264</v>
+        <v>304</v>
       </c>
       <c r="H82" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>293</v>
+        <v>279</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
@@ -3942,44 +4054,44 @@
         <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>271</v>
+        <v>319</v>
       </c>
       <c r="G83" t="s">
         <v>96</v>
       </c>
       <c r="H83" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A84" t="s">
-        <v>272</v>
+      <c r="A84" s="6" t="s">
+        <v>261</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
       </c>
       <c r="C84" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="D84">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E84" t="s">
         <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>273</v>
+        <v>325</v>
       </c>
       <c r="G84" t="s">
-        <v>97</v>
+        <v>317</v>
       </c>
       <c r="H84" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
@@ -3994,18 +4106,18 @@
         <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>275</v>
+        <v>318</v>
       </c>
       <c r="G85" t="s">
         <v>55</v>
       </c>
       <c r="H85" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
@@ -4020,18 +4132,18 @@
         <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="G86" t="s">
-        <v>266</v>
+        <v>256</v>
       </c>
       <c r="H86" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
@@ -4046,15 +4158,15 @@
         <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="H87" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
@@ -4069,15 +4181,15 @@
         <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="H88" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
@@ -4092,18 +4204,18 @@
         <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="G89" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="H89" t="s">
-        <v>244</v>
+        <v>239</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>287</v>
+        <v>273</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
@@ -4118,18 +4230,18 @@
         <v>34</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>288</v>
+        <v>274</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>289</v>
+        <v>275</v>
       </c>
       <c r="H90" t="s">
-        <v>245</v>
+        <v>240</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>290</v>
+        <v>276</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
@@ -4144,18 +4256,18 @@
         <v>44</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>291</v>
+        <v>277</v>
       </c>
       <c r="G91" t="s">
-        <v>292</v>
+        <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>295</v>
+        <v>281</v>
       </c>
       <c r="F92" t="s">
-        <v>294</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4175,13 +4287,189 @@
         <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>297</v>
+        <v>283</v>
       </c>
       <c r="G93" t="s">
+        <v>282</v>
+      </c>
+      <c r="H93" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A94" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="B94" t="s">
+        <v>20</v>
+      </c>
+      <c r="C94" t="s">
+        <v>17</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>34</v>
+      </c>
+      <c r="F94" t="s">
+        <v>293</v>
+      </c>
+      <c r="G94" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A95" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B95" t="s">
+        <v>16</v>
+      </c>
+      <c r="C95" t="s">
+        <v>40</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>34</v>
+      </c>
+      <c r="F95" t="s">
+        <v>295</v>
+      </c>
+      <c r="G95" t="s">
         <v>296</v>
       </c>
-      <c r="H93" t="s">
-        <v>244</v>
+      <c r="H95" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>305</v>
+      </c>
+      <c r="B96" t="s">
+        <v>20</v>
+      </c>
+      <c r="C96" t="s">
+        <v>22</v>
+      </c>
+      <c r="D96">
+        <v>0</v>
+      </c>
+      <c r="E96" t="s">
+        <v>34</v>
+      </c>
+      <c r="F96" t="s">
+        <v>306</v>
+      </c>
+      <c r="G96" t="s">
+        <v>97</v>
+      </c>
+      <c r="H96" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>307</v>
+      </c>
+      <c r="B97" t="s">
+        <v>16</v>
+      </c>
+      <c r="C97" t="s">
+        <v>22</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>34</v>
+      </c>
+      <c r="F97" t="s">
+        <v>309</v>
+      </c>
+      <c r="G97" t="s">
+        <v>310</v>
+      </c>
+      <c r="H97" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>308</v>
+      </c>
+      <c r="B98" t="s">
+        <v>20</v>
+      </c>
+      <c r="C98" t="s">
+        <v>22</v>
+      </c>
+      <c r="D98">
+        <v>0</v>
+      </c>
+      <c r="E98" t="s">
+        <v>34</v>
+      </c>
+      <c r="F98" t="s">
+        <v>314</v>
+      </c>
+      <c r="G98" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A99" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B99" t="s">
+        <v>20</v>
+      </c>
+      <c r="C99" t="s">
+        <v>22</v>
+      </c>
+      <c r="D99">
+        <v>0</v>
+      </c>
+      <c r="E99" t="s">
+        <v>34</v>
+      </c>
+      <c r="F99" t="s">
+        <v>316</v>
+      </c>
+      <c r="G99" t="s">
+        <v>312</v>
+      </c>
+      <c r="H99" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A100" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B100" t="s">
+        <v>16</v>
+      </c>
+      <c r="C100" t="s">
+        <v>17</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>322</v>
+      </c>
+      <c r="G100" t="s">
+        <v>323</v>
+      </c>
+      <c r="H100" t="s">
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -4191,6 +4479,30 @@
     </dataRefs>
   </dataConsolidate>
   <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A2">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <dataValidations count="5">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1:B1048576" xr:uid="{013C8299-8281-4110-BAF6-5FF17BFD34EE}">
       <formula1>"桃,绿,无色"</formula1>
@@ -4215,10 +4527,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B022A89-3507-403F-808A-D277FB30A3AB}">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4273,7 +4585,7 @@
         <v>124</v>
       </c>
       <c r="B9" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -4284,8 +4596,35 @@
         <v>131</v>
       </c>
     </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>297</v>
+      </c>
+    </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>298</v>
+      </c>
+      <c r="B15" t="s">
+        <v>299</v>
+      </c>
       <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>43</v>
+      </c>
+      <c r="B17" t="s">
+        <v>302</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/BA桃绿模组卡牌设计.xlsx
+++ b/BA桃绿模组卡牌设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22308\Documents\JavaProjects\blue_archive_mod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69584C6D-1602-4EB9-A292-723D7FBE8717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F4120A-B5C1-4353-BE8B-7F26715C5BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="730" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="339">
   <si>
     <t>灼伤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -797,14 +797,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>透支</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抽2，下回合少抽2张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>抽3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1316,10 +1308,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>选1张牌返回抽牌堆，手牌加入交换后的复制。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>交换桃牌后减1费</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1377,6 +1365,54 @@
   </si>
   <si>
     <t>获得消耗，保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>见者有份！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本回合打出的下一张单体攻击牌，对其他所有敌人打出一次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下2张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金透支</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽2，每次打出少抽1.被其他卡打出后，重置抽牌数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5防，打出1张手牌的桃技能牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分头行动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选1张牌手牌加入交换后的复制。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>便捷连携</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出手牌1张牌。连携：打出牌组1张牌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打出手牌2张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成8伤。连携：造成10伤。超连携：造成12伤</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1769,10 +1805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O100"/>
+  <dimension ref="A1:O104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1806,7 +1842,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
@@ -1838,7 +1874,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K2" t="s">
         <v>61</v>
@@ -1873,19 +1909,19 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K3">
         <f>COUNTA(A2:A300)</f>
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="L3">
         <f>COUNTIF(B2:B300,B2)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="M3">
         <f>COUNTIF(B2:B300,B3)</f>
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1911,7 +1947,7 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K4" t="s">
         <v>64</v>
@@ -1946,15 +1982,15 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K5">
         <f>COUNTIF(C2:C300,C2)</f>
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L5">
         <f>COUNTIF(C2:C300,C4)</f>
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="M5">
         <f>COUNTIF(C2:C300,C10)</f>
@@ -1984,7 +2020,7 @@
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K6" t="s">
         <v>67</v>
@@ -2025,7 +2061,7 @@
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K7">
         <f>COUNTIF(D2:D300,0)</f>
@@ -2033,7 +2069,7 @@
       </c>
       <c r="L7">
         <f>COUNTIF(D2:D300,1)</f>
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="M7">
         <f>COUNTIF(D2:D300,2)</f>
@@ -2071,7 +2107,7 @@
         <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K8" t="s">
         <v>72</v>
@@ -2109,7 +2145,7 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K9">
         <f>COUNTIF(E2:E300,"初始")</f>
@@ -2121,11 +2157,11 @@
       </c>
       <c r="M9">
         <f>COUNTIF(E2:E300,"罕见")</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N9">
         <f>COUNTIF(E2:E300,"稀有")</f>
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.2">
@@ -2151,13 +2187,13 @@
         <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K10" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="L10" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2183,7 +2219,7 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K11">
         <f>COUNTIF(H2:H300,"是")</f>
@@ -2217,7 +2253,7 @@
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -2243,7 +2279,7 @@
         <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -2269,7 +2305,7 @@
         <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2295,7 +2331,7 @@
         <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2321,7 +2357,7 @@
         <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2347,7 +2383,7 @@
         <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2373,7 +2409,7 @@
         <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -2399,7 +2435,7 @@
         <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -2425,7 +2461,7 @@
         <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2451,12 +2487,12 @@
         <v>90</v>
       </c>
       <c r="H21" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -2477,7 +2513,7 @@
         <v>93</v>
       </c>
       <c r="H22" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2503,7 +2539,7 @@
         <v>96</v>
       </c>
       <c r="H23" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2529,7 +2565,7 @@
         <v>97</v>
       </c>
       <c r="H24" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2555,7 +2591,7 @@
         <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -2581,7 +2617,7 @@
         <v>106</v>
       </c>
       <c r="H26" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2604,7 +2640,7 @@
         <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2630,7 +2666,7 @@
         <v>109</v>
       </c>
       <c r="H28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2656,7 +2692,7 @@
         <v>114</v>
       </c>
       <c r="H29" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2682,7 +2718,7 @@
         <v>96</v>
       </c>
       <c r="H30" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2708,7 +2744,7 @@
         <v>119</v>
       </c>
       <c r="H31" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2728,13 +2764,13 @@
         <v>34</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G32" s="2" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2760,7 +2796,7 @@
         <v>123</v>
       </c>
       <c r="H33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2786,7 +2822,7 @@
         <v>126</v>
       </c>
       <c r="H34" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2812,7 +2848,7 @@
         <v>140</v>
       </c>
       <c r="H35" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2832,13 +2868,13 @@
         <v>34</v>
       </c>
       <c r="F36" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G36" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="H36" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2864,7 +2900,7 @@
         <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2890,7 +2926,7 @@
         <v>138</v>
       </c>
       <c r="H38" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2916,7 +2952,7 @@
         <v>142</v>
       </c>
       <c r="H39" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2942,7 +2978,7 @@
         <v>145</v>
       </c>
       <c r="H40" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -2968,7 +3004,7 @@
         <v>148</v>
       </c>
       <c r="H41" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -2991,10 +3027,10 @@
         <v>150</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="H42" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3017,10 +3053,10 @@
         <v>158</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H43" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3046,7 +3082,7 @@
         <v>154</v>
       </c>
       <c r="H44" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -3066,18 +3102,18 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G45" t="s">
         <v>159</v>
       </c>
       <c r="H45" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -3092,13 +3128,13 @@
         <v>41</v>
       </c>
       <c r="F46" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="H46" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -3118,13 +3154,13 @@
         <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G47" t="s">
         <v>157</v>
       </c>
       <c r="H47" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -3150,7 +3186,7 @@
         <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3176,7 +3212,7 @@
         <v>81</v>
       </c>
       <c r="H49" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -3202,7 +3238,7 @@
         <v>55</v>
       </c>
       <c r="H50" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -3228,7 +3264,7 @@
         <v>170</v>
       </c>
       <c r="H51" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3254,7 +3290,7 @@
         <v>174</v>
       </c>
       <c r="H52" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -3280,7 +3316,7 @@
         <v>177</v>
       </c>
       <c r="H53" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -3306,12 +3342,12 @@
         <v>180</v>
       </c>
       <c r="H54" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A55" t="s">
-        <v>181</v>
+      <c r="A55" s="6" t="s">
+        <v>330</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
@@ -3326,18 +3362,18 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>182</v>
+        <v>331</v>
       </c>
       <c r="G55" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="H55" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B56" t="s">
         <v>20</v>
@@ -3352,24 +3388,24 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G56" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="H56" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A57" s="6" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B57" t="s">
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3378,18 +3414,18 @@
         <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="G57" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H57" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B58" t="s">
         <v>16</v>
@@ -3404,18 +3440,18 @@
         <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G58" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="H58" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B59" t="s">
         <v>16</v>
@@ -3430,18 +3466,18 @@
         <v>34</v>
       </c>
       <c r="F59" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G59" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="H59" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B60" t="s">
         <v>20</v>
@@ -3456,18 +3492,18 @@
         <v>34</v>
       </c>
       <c r="F60" s="6" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G60" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="H60" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B61" t="s">
         <v>20</v>
@@ -3482,18 +3518,18 @@
         <v>41</v>
       </c>
       <c r="F61" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="G61" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H61" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
@@ -3508,18 +3544,18 @@
         <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="G62" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="H62" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
@@ -3534,18 +3570,18 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G63" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H63" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
@@ -3560,18 +3596,18 @@
         <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="G64" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H64" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
@@ -3586,18 +3622,18 @@
         <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="G65" t="s">
         <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B66" t="s">
         <v>20</v>
@@ -3612,18 +3648,18 @@
         <v>34</v>
       </c>
       <c r="F66" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="G66" t="s">
         <v>24</v>
       </c>
       <c r="H66" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -3638,18 +3674,18 @@
         <v>41</v>
       </c>
       <c r="F67" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G67" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H67" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
@@ -3664,18 +3700,18 @@
         <v>34</v>
       </c>
       <c r="F68" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="G68" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H68" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B69" t="s">
         <v>20</v>
@@ -3690,18 +3726,18 @@
         <v>34</v>
       </c>
       <c r="F69" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G69" t="s">
         <v>55</v>
       </c>
       <c r="H69" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
@@ -3716,18 +3752,18 @@
         <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G70" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H70" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
@@ -3742,18 +3778,18 @@
         <v>34</v>
       </c>
       <c r="F71" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="G71" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H71" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
@@ -3768,18 +3804,18 @@
         <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G72" t="s">
         <v>42</v>
       </c>
       <c r="H72" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
@@ -3794,18 +3830,18 @@
         <v>34</v>
       </c>
       <c r="F73" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G73" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="H73" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
@@ -3820,18 +3856,18 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G74" t="s">
         <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -3846,18 +3882,18 @@
         <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G75" t="s">
         <v>96</v>
       </c>
       <c r="H75" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
@@ -3872,18 +3908,18 @@
         <v>41</v>
       </c>
       <c r="F76" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="G76" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="H76" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
@@ -3898,18 +3934,18 @@
         <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G77" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="H77" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -3924,18 +3960,18 @@
         <v>41</v>
       </c>
       <c r="F78" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="G78" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="H78" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
@@ -3950,18 +3986,18 @@
         <v>44</v>
       </c>
       <c r="F79" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G79" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="H79" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
@@ -3976,18 +4012,18 @@
         <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G80" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="H80" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
@@ -4002,18 +4038,18 @@
         <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G81" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="H81" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
@@ -4028,18 +4064,18 @@
         <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G82" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="H82" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
@@ -4054,18 +4090,18 @@
         <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G83" t="s">
         <v>96</v>
       </c>
       <c r="H83" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
@@ -4080,18 +4116,18 @@
         <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G84" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="H84" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
@@ -4106,18 +4142,18 @@
         <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G85" t="s">
         <v>55</v>
       </c>
       <c r="H85" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
@@ -4132,18 +4168,18 @@
         <v>44</v>
       </c>
       <c r="F86" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="G86" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="H86" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
@@ -4158,15 +4194,15 @@
         <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H87" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
@@ -4181,15 +4217,15 @@
         <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="H88" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
@@ -4204,18 +4240,18 @@
         <v>34</v>
       </c>
       <c r="F89" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="G89" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H89" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
@@ -4230,18 +4266,18 @@
         <v>34</v>
       </c>
       <c r="F90" s="6" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="G90" s="4" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H90" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
@@ -4256,18 +4292,18 @@
         <v>44</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G91" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F92" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4287,18 +4323,18 @@
         <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="G93" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="H93" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
@@ -4313,15 +4349,15 @@
         <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G94" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
@@ -4336,18 +4372,18 @@
         <v>34</v>
       </c>
       <c r="F95" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G95" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H95" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
@@ -4362,18 +4398,18 @@
         <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G96" t="s">
         <v>97</v>
       </c>
       <c r="H96" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
@@ -4388,18 +4424,18 @@
         <v>34</v>
       </c>
       <c r="F97" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G97" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="H97" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A98" t="s">
-        <v>308</v>
+      <c r="A98" s="6" t="s">
+        <v>306</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
@@ -4414,15 +4450,15 @@
         <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>314</v>
+        <v>334</v>
       </c>
       <c r="G98" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
@@ -4437,18 +4473,18 @@
         <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G99" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="H99" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
@@ -4463,13 +4499,99 @@
         <v>44</v>
       </c>
       <c r="F100" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G100" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H100" t="s">
-        <v>240</v>
+        <v>238</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A101" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="B101" t="s">
+        <v>20</v>
+      </c>
+      <c r="C101" t="s">
+        <v>22</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>41</v>
+      </c>
+      <c r="F101" t="s">
+        <v>328</v>
+      </c>
+      <c r="G101" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A102" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="B102" t="s">
+        <v>20</v>
+      </c>
+      <c r="C102" t="s">
+        <v>22</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>34</v>
+      </c>
+      <c r="F102" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A103" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="B103" t="s">
+        <v>16</v>
+      </c>
+      <c r="C103" t="s">
+        <v>22</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>41</v>
+      </c>
+      <c r="F103" t="s">
+        <v>336</v>
+      </c>
+      <c r="G103" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A104" s="6" t="s">
+        <v>164</v>
+      </c>
+      <c r="B104" t="s">
+        <v>16</v>
+      </c>
+      <c r="C104" t="s">
+        <v>17</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>34</v>
+      </c>
+      <c r="F104" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>
@@ -4479,8 +4601,8 @@
     </dataRefs>
   </dataConsolidate>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="K13">
-    <cfRule type="colorScale" priority="2">
+  <conditionalFormatting sqref="A2">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4491,8 +4613,8 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A2">
-    <cfRule type="colorScale" priority="1">
+  <conditionalFormatting sqref="K13">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -4598,24 +4720,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B15" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B16" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4623,7 +4745,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/BA桃绿模组卡牌设计.xlsx
+++ b/BA桃绿模组卡牌设计.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\22308\Documents\JavaProjects\blue_archive_mod\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5F4120A-B5C1-4353-BE8B-7F26715C5BD4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12B5D3B3-F7B5-4D8E-8825-0E444CA20872}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="339">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="353">
   <si>
     <t>灼伤</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -865,10 +865,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>保留，保留时，获得此牌耗能得经验，然后耗能-1。抽1张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>充能攻击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1384,10 +1380,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>抽2，每次打出少抽1.被其他卡打出后，重置抽牌数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>5防，打出1张手牌的桃技能牌</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1413,6 +1405,70 @@
   </si>
   <si>
     <t>造成8伤。连携：造成10伤。超连携：造成12伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>再次读档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>效果打出的牌会回到抽牌堆</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保留</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择打出手牌两张攻击牌，但只使用其连携和超连携效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强制指令</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>二段击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能被连携。连携：全体5伤2次。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体7伤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只能被连携。连携：获得耗能的经验值，此牌耗能-1.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽4，每次打出少抽1.被其他卡打出后，重置抽牌数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽5张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抽4张牌。这些牌获得保留。连携：打出其中1张</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暂且休整</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>力尽一击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成30点伤害，之后这张牌本场战斗伤害下降70%；连携：伤害恢复。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>下降50%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1805,10 +1861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O104"/>
+  <dimension ref="A1:O109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A79" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A110" sqref="A110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1842,7 +1898,7 @@
         <v>13</v>
       </c>
       <c r="H1" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I1" t="s">
         <v>14</v>
@@ -1874,7 +1930,7 @@
         <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K2" t="s">
         <v>61</v>
@@ -1909,19 +1965,19 @@
         <v>19</v>
       </c>
       <c r="H3" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K3">
         <f>COUNTA(A2:A300)</f>
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="L3">
         <f>COUNTIF(B2:B300,B2)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M3">
         <f>COUNTIF(B2:B300,B3)</f>
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
@@ -1947,7 +2003,7 @@
         <v>24</v>
       </c>
       <c r="H4" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K4" t="s">
         <v>64</v>
@@ -1982,19 +2038,19 @@
         <v>24</v>
       </c>
       <c r="H5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K5">
         <f>COUNTIF(C2:C300,C2)</f>
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="L5">
         <f>COUNTIF(C2:C300,C4)</f>
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M5">
         <f>COUNTIF(C2:C300,C10)</f>
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.2">
@@ -2020,7 +2076,7 @@
         <v>26</v>
       </c>
       <c r="H6" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K6" t="s">
         <v>67</v>
@@ -2061,7 +2117,7 @@
         <v>29</v>
       </c>
       <c r="H7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K7">
         <f>COUNTIF(D2:D300,0)</f>
@@ -2069,11 +2125,11 @@
       </c>
       <c r="L7">
         <f>COUNTIF(D2:D300,1)</f>
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="M7">
         <f>COUNTIF(D2:D300,2)</f>
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="N7">
         <f>COUNTIF(D2:D300,3)</f>
@@ -2107,7 +2163,7 @@
         <v>31</v>
       </c>
       <c r="H8" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K8" t="s">
         <v>72</v>
@@ -2145,7 +2201,7 @@
         <v>37</v>
       </c>
       <c r="H9" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="K9">
         <f>COUNTIF(E2:E300,"初始")</f>
@@ -2153,11 +2209,11 @@
       </c>
       <c r="L9">
         <f>COUNTIF(E2:E300,"普通")</f>
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M9">
         <f>COUNTIF(E2:E300,"罕见")</f>
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="N9">
         <f>COUNTIF(E2:E300,"稀有")</f>
@@ -2187,13 +2243,13 @@
         <v>42</v>
       </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K10" t="s">
+        <v>239</v>
+      </c>
+      <c r="L10" t="s">
         <v>240</v>
-      </c>
-      <c r="L10" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.2">
@@ -2219,7 +2275,7 @@
         <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="K11">
         <f>COUNTIF(H2:H300,"是")</f>
@@ -2253,7 +2309,7 @@
         <v>49</v>
       </c>
       <c r="H12" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.2">
@@ -2279,7 +2335,7 @@
         <v>52</v>
       </c>
       <c r="H13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.2">
@@ -2305,7 +2361,7 @@
         <v>55</v>
       </c>
       <c r="H14" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.2">
@@ -2331,7 +2387,7 @@
         <v>59</v>
       </c>
       <c r="H15" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.2">
@@ -2357,7 +2413,7 @@
         <v>78</v>
       </c>
       <c r="H16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -2383,7 +2439,7 @@
         <v>81</v>
       </c>
       <c r="H17" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -2409,7 +2465,7 @@
         <v>161</v>
       </c>
       <c r="H18" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -2435,7 +2491,7 @@
         <v>84</v>
       </c>
       <c r="H19" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -2461,7 +2517,7 @@
         <v>88</v>
       </c>
       <c r="H20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -2487,12 +2543,12 @@
         <v>90</v>
       </c>
       <c r="H21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B22" t="s">
         <v>20</v>
@@ -2513,7 +2569,7 @@
         <v>93</v>
       </c>
       <c r="H22" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -2539,7 +2595,7 @@
         <v>96</v>
       </c>
       <c r="H23" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -2565,7 +2621,7 @@
         <v>97</v>
       </c>
       <c r="H24" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -2591,7 +2647,7 @@
         <v>100</v>
       </c>
       <c r="H25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="28.5" x14ac:dyDescent="0.2">
@@ -2617,7 +2673,7 @@
         <v>106</v>
       </c>
       <c r="H26" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -2640,7 +2696,7 @@
         <v>110</v>
       </c>
       <c r="H27" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -2666,7 +2722,7 @@
         <v>109</v>
       </c>
       <c r="H28" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -2692,7 +2748,7 @@
         <v>114</v>
       </c>
       <c r="H29" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -2718,7 +2774,7 @@
         <v>96</v>
       </c>
       <c r="H30" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -2744,7 +2800,7 @@
         <v>119</v>
       </c>
       <c r="H31" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="32" spans="1:8" s="2" customFormat="1" x14ac:dyDescent="0.2">
@@ -2764,13 +2820,13 @@
         <v>34</v>
       </c>
       <c r="F32" s="2" t="s">
+        <v>322</v>
+      </c>
+      <c r="G32" s="2" t="s">
         <v>323</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>324</v>
-      </c>
       <c r="H32" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -2796,7 +2852,7 @@
         <v>123</v>
       </c>
       <c r="H33" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -2822,7 +2878,7 @@
         <v>126</v>
       </c>
       <c r="H34" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -2848,7 +2904,7 @@
         <v>140</v>
       </c>
       <c r="H35" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -2868,13 +2924,13 @@
         <v>34</v>
       </c>
       <c r="F36" t="s">
+        <v>324</v>
+      </c>
+      <c r="G36" t="s">
         <v>325</v>
       </c>
-      <c r="G36" t="s">
-        <v>326</v>
-      </c>
       <c r="H36" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -2900,7 +2956,7 @@
         <v>42</v>
       </c>
       <c r="H37" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.2">
@@ -2926,7 +2982,7 @@
         <v>138</v>
       </c>
       <c r="H38" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.2">
@@ -2952,7 +3008,7 @@
         <v>142</v>
       </c>
       <c r="H39" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.2">
@@ -2978,7 +3034,7 @@
         <v>145</v>
       </c>
       <c r="H40" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.2">
@@ -3004,7 +3060,7 @@
         <v>148</v>
       </c>
       <c r="H41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
@@ -3027,10 +3083,10 @@
         <v>150</v>
       </c>
       <c r="G42" s="4" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H42" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.2">
@@ -3053,10 +3109,10 @@
         <v>158</v>
       </c>
       <c r="G43" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H43" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.2">
@@ -3082,7 +3138,7 @@
         <v>154</v>
       </c>
       <c r="H44" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.2">
@@ -3102,18 +3158,18 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G45" t="s">
         <v>159</v>
       </c>
       <c r="H45" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B46" t="s">
         <v>20</v>
@@ -3128,13 +3184,13 @@
         <v>41</v>
       </c>
       <c r="F46" t="s">
+        <v>225</v>
+      </c>
+      <c r="G46" t="s">
         <v>226</v>
       </c>
-      <c r="G46" t="s">
-        <v>227</v>
-      </c>
       <c r="H46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
@@ -3148,19 +3204,19 @@
         <v>22</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E47" t="s">
         <v>41</v>
       </c>
       <c r="F47" t="s">
-        <v>198</v>
+        <v>345</v>
       </c>
       <c r="G47" t="s">
         <v>157</v>
       </c>
       <c r="H47" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
@@ -3186,7 +3242,7 @@
         <v>19</v>
       </c>
       <c r="H48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
@@ -3212,7 +3268,7 @@
         <v>81</v>
       </c>
       <c r="H49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
@@ -3238,7 +3294,7 @@
         <v>55</v>
       </c>
       <c r="H50" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.2">
@@ -3264,7 +3320,7 @@
         <v>170</v>
       </c>
       <c r="H51" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.2">
@@ -3290,7 +3346,7 @@
         <v>174</v>
       </c>
       <c r="H52" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.2">
@@ -3316,7 +3372,7 @@
         <v>177</v>
       </c>
       <c r="H53" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.2">
@@ -3342,12 +3398,12 @@
         <v>180</v>
       </c>
       <c r="H54" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A55" s="6" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B55" t="s">
         <v>16</v>
@@ -3356,19 +3412,19 @@
         <v>22</v>
       </c>
       <c r="D55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E55" t="s">
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>331</v>
+        <v>346</v>
       </c>
       <c r="G55" t="s">
         <v>181</v>
       </c>
       <c r="H55" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.2">
@@ -3394,7 +3450,7 @@
         <v>184</v>
       </c>
       <c r="H56" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.2">
@@ -3405,7 +3461,7 @@
         <v>16</v>
       </c>
       <c r="C57" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3414,13 +3470,13 @@
         <v>34</v>
       </c>
       <c r="F57" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G57" t="s">
         <v>186</v>
       </c>
       <c r="H57" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.2">
@@ -3440,13 +3496,13 @@
         <v>34</v>
       </c>
       <c r="F58" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="G58" t="s">
         <v>188</v>
       </c>
       <c r="H58" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.2">
@@ -3472,7 +3528,7 @@
         <v>191</v>
       </c>
       <c r="H59" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.2">
@@ -3498,7 +3554,7 @@
         <v>194</v>
       </c>
       <c r="H60" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
@@ -3524,12 +3580,12 @@
         <v>196</v>
       </c>
       <c r="H61" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B62" t="s">
         <v>16</v>
@@ -3544,18 +3600,18 @@
         <v>34</v>
       </c>
       <c r="F62" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="G62" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="H62" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B63" t="s">
         <v>16</v>
@@ -3570,18 +3626,18 @@
         <v>44</v>
       </c>
       <c r="F63" t="s">
+        <v>201</v>
+      </c>
+      <c r="G63" t="s">
         <v>202</v>
       </c>
-      <c r="G63" t="s">
-        <v>203</v>
-      </c>
       <c r="H63" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B64" t="s">
         <v>20</v>
@@ -3596,18 +3652,18 @@
         <v>41</v>
       </c>
       <c r="F64" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G64" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="H64" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B65" t="s">
         <v>16</v>
@@ -3622,44 +3678,44 @@
         <v>34</v>
       </c>
       <c r="F65" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G65" t="s">
         <v>19</v>
       </c>
       <c r="H65" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
+        <v>207</v>
+      </c>
+      <c r="B66" t="s">
+        <v>20</v>
+      </c>
+      <c r="C66" t="s">
+        <v>22</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>34</v>
+      </c>
+      <c r="F66" t="s">
         <v>208</v>
-      </c>
-      <c r="B66" t="s">
-        <v>20</v>
-      </c>
-      <c r="C66" t="s">
-        <v>22</v>
-      </c>
-      <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>34</v>
-      </c>
-      <c r="F66" t="s">
-        <v>209</v>
       </c>
       <c r="G66" t="s">
         <v>24</v>
       </c>
       <c r="H66" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B67" t="s">
         <v>20</v>
@@ -3674,18 +3730,18 @@
         <v>41</v>
       </c>
       <c r="F67" t="s">
+        <v>210</v>
+      </c>
+      <c r="G67" t="s">
         <v>211</v>
       </c>
-      <c r="G67" t="s">
-        <v>212</v>
-      </c>
       <c r="H67" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A68" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B68" t="s">
         <v>16</v>
@@ -3700,44 +3756,44 @@
         <v>34</v>
       </c>
       <c r="F68" t="s">
+        <v>212</v>
+      </c>
+      <c r="G68" t="s">
         <v>213</v>
       </c>
-      <c r="G68" t="s">
-        <v>214</v>
-      </c>
       <c r="H68" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
+        <v>214</v>
+      </c>
+      <c r="B69" t="s">
+        <v>20</v>
+      </c>
+      <c r="C69" t="s">
+        <v>22</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>34</v>
+      </c>
+      <c r="F69" t="s">
         <v>215</v>
-      </c>
-      <c r="B69" t="s">
-        <v>20</v>
-      </c>
-      <c r="C69" t="s">
-        <v>22</v>
-      </c>
-      <c r="D69">
-        <v>1</v>
-      </c>
-      <c r="E69" t="s">
-        <v>34</v>
-      </c>
-      <c r="F69" t="s">
-        <v>216</v>
       </c>
       <c r="G69" t="s">
         <v>55</v>
       </c>
       <c r="H69" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A70" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B70" t="s">
         <v>20</v>
@@ -3752,18 +3808,18 @@
         <v>34</v>
       </c>
       <c r="F70" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G70" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H70" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B71" t="s">
         <v>16</v>
@@ -3778,18 +3834,18 @@
         <v>34</v>
       </c>
       <c r="F71" t="s">
+        <v>220</v>
+      </c>
+      <c r="G71" t="s">
         <v>221</v>
       </c>
-      <c r="G71" t="s">
-        <v>222</v>
-      </c>
       <c r="H71" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B72" t="s">
         <v>16</v>
@@ -3804,18 +3860,18 @@
         <v>41</v>
       </c>
       <c r="F72" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G72" t="s">
         <v>42</v>
       </c>
       <c r="H72" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B73" t="s">
         <v>20</v>
@@ -3830,18 +3886,18 @@
         <v>34</v>
       </c>
       <c r="F73" t="s">
+        <v>230</v>
+      </c>
+      <c r="G73" t="s">
         <v>231</v>
       </c>
-      <c r="G73" t="s">
-        <v>232</v>
-      </c>
       <c r="H73" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A74" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B74" t="s">
         <v>16</v>
@@ -3856,18 +3912,18 @@
         <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G74" t="s">
         <v>19</v>
       </c>
       <c r="H74" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B75" t="s">
         <v>20</v>
@@ -3882,18 +3938,18 @@
         <v>41</v>
       </c>
       <c r="F75" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G75" t="s">
         <v>96</v>
       </c>
       <c r="H75" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B76" t="s">
         <v>16</v>
@@ -3908,18 +3964,18 @@
         <v>41</v>
       </c>
       <c r="F76" t="s">
+        <v>243</v>
+      </c>
+      <c r="G76" t="s">
         <v>244</v>
       </c>
-      <c r="G76" t="s">
-        <v>245</v>
-      </c>
       <c r="H76" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B77" t="s">
         <v>20</v>
@@ -3934,18 +3990,18 @@
         <v>44</v>
       </c>
       <c r="F77" t="s">
+        <v>246</v>
+      </c>
+      <c r="G77" t="s">
         <v>247</v>
       </c>
-      <c r="G77" t="s">
-        <v>248</v>
-      </c>
       <c r="H77" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B78" t="s">
         <v>20</v>
@@ -3960,18 +4016,18 @@
         <v>41</v>
       </c>
       <c r="F78" t="s">
+        <v>249</v>
+      </c>
+      <c r="G78" t="s">
         <v>250</v>
       </c>
-      <c r="G78" t="s">
-        <v>251</v>
-      </c>
       <c r="H78" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A79" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B79" t="s">
         <v>16</v>
@@ -3986,18 +4042,18 @@
         <v>44</v>
       </c>
       <c r="F79" t="s">
+        <v>316</v>
+      </c>
+      <c r="G79" t="s">
         <v>317</v>
       </c>
-      <c r="G79" t="s">
-        <v>318</v>
-      </c>
       <c r="H79" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A80" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B80" t="s">
         <v>16</v>
@@ -4012,18 +4068,18 @@
         <v>44</v>
       </c>
       <c r="F80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G80" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="H80" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A81" s="6" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B81" t="s">
         <v>20</v>
@@ -4038,18 +4094,18 @@
         <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G81" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="H81" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B82" t="s">
         <v>20</v>
@@ -4064,18 +4120,18 @@
         <v>44</v>
       </c>
       <c r="F82" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="G82" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="H82" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B83" t="s">
         <v>16</v>
@@ -4090,18 +4146,18 @@
         <v>41</v>
       </c>
       <c r="F83" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G83" t="s">
         <v>96</v>
       </c>
       <c r="H83" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A84" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B84" t="s">
         <v>16</v>
@@ -4116,18 +4172,18 @@
         <v>34</v>
       </c>
       <c r="F84" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="G84" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="H84" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B85" t="s">
         <v>20</v>
@@ -4142,18 +4198,18 @@
         <v>34</v>
       </c>
       <c r="F85" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="G85" t="s">
         <v>55</v>
       </c>
       <c r="H85" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B86" t="s">
         <v>16</v>
@@ -4168,18 +4224,18 @@
         <v>44</v>
       </c>
       <c r="F86" t="s">
+        <v>252</v>
+      </c>
+      <c r="G86" t="s">
         <v>253</v>
       </c>
-      <c r="G86" t="s">
-        <v>254</v>
-      </c>
       <c r="H86" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B87" t="s">
         <v>20</v>
@@ -4194,15 +4250,15 @@
         <v>41</v>
       </c>
       <c r="F87" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="H87" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B88" t="s">
         <v>20</v>
@@ -4217,15 +4273,15 @@
         <v>34</v>
       </c>
       <c r="F88" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H88" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B89" t="s">
         <v>20</v>
@@ -4240,18 +4296,18 @@
         <v>34</v>
       </c>
       <c r="F89" t="s">
+        <v>264</v>
+      </c>
+      <c r="G89" t="s">
         <v>265</v>
       </c>
-      <c r="G89" t="s">
-        <v>266</v>
-      </c>
       <c r="H89" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B90" t="s">
         <v>20</v>
@@ -4266,18 +4322,18 @@
         <v>34</v>
       </c>
       <c r="F90" s="6" t="s">
+        <v>271</v>
+      </c>
+      <c r="G90" s="4" t="s">
         <v>272</v>
       </c>
-      <c r="G90" s="4" t="s">
-        <v>273</v>
-      </c>
       <c r="H90" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B91" t="s">
         <v>16</v>
@@ -4292,18 +4348,18 @@
         <v>44</v>
       </c>
       <c r="F91" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="G91" t="s">
         <v>275</v>
-      </c>
-      <c r="G91" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.2">
@@ -4323,18 +4379,18 @@
         <v>34</v>
       </c>
       <c r="F93" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G93" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="H93" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A94" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B94" t="s">
         <v>20</v>
@@ -4349,15 +4405,15 @@
         <v>34</v>
       </c>
       <c r="F94" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G94" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A95" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B95" t="s">
         <v>16</v>
@@ -4372,18 +4428,18 @@
         <v>34</v>
       </c>
       <c r="F95" t="s">
+        <v>292</v>
+      </c>
+      <c r="G95" t="s">
         <v>293</v>
       </c>
-      <c r="G95" t="s">
-        <v>294</v>
-      </c>
       <c r="H95" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B96" t="s">
         <v>20</v>
@@ -4398,18 +4454,18 @@
         <v>34</v>
       </c>
       <c r="F96" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G96" t="s">
         <v>97</v>
       </c>
       <c r="H96" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B97" t="s">
         <v>16</v>
@@ -4424,18 +4480,18 @@
         <v>34</v>
       </c>
       <c r="F97" t="s">
+        <v>306</v>
+      </c>
+      <c r="G97" t="s">
         <v>307</v>
       </c>
-      <c r="G97" t="s">
-        <v>308</v>
-      </c>
       <c r="H97" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A98" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B98" t="s">
         <v>20</v>
@@ -4450,15 +4506,15 @@
         <v>34</v>
       </c>
       <c r="F98" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="G98" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A99" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B99" t="s">
         <v>20</v>
@@ -4473,18 +4529,18 @@
         <v>34</v>
       </c>
       <c r="F99" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G99" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="H99" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A100" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B100" t="s">
         <v>16</v>
@@ -4499,18 +4555,18 @@
         <v>44</v>
       </c>
       <c r="F100" t="s">
+        <v>318</v>
+      </c>
+      <c r="G100" t="s">
         <v>319</v>
       </c>
-      <c r="G100" t="s">
-        <v>320</v>
-      </c>
       <c r="H100" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A101" s="6" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B101" t="s">
         <v>20</v>
@@ -4525,15 +4581,15 @@
         <v>41</v>
       </c>
       <c r="F101" t="s">
+        <v>327</v>
+      </c>
+      <c r="G101" t="s">
         <v>328</v>
-      </c>
-      <c r="G101" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A102" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B102" t="s">
         <v>20</v>
@@ -4548,12 +4604,12 @@
         <v>34</v>
       </c>
       <c r="F102" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A103" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B103" t="s">
         <v>16</v>
@@ -4568,10 +4624,10 @@
         <v>41</v>
       </c>
       <c r="F103" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="G103" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.2">
@@ -4591,7 +4647,122 @@
         <v>34</v>
       </c>
       <c r="F104" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A105" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B105" t="s">
+        <v>20</v>
+      </c>
+      <c r="C105" t="s">
+        <v>40</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>34</v>
+      </c>
+      <c r="F105" t="s">
         <v>338</v>
+      </c>
+      <c r="G105" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A106" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="C106" t="s">
+        <v>22</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>34</v>
+      </c>
+      <c r="F106" t="s">
+        <v>340</v>
+      </c>
+      <c r="G106" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A107" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B107" t="s">
+        <v>16</v>
+      </c>
+      <c r="C107" t="s">
+        <v>17</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>44</v>
+      </c>
+      <c r="F107" t="s">
+        <v>343</v>
+      </c>
+      <c r="G107" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A108" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B108" t="s">
+        <v>20</v>
+      </c>
+      <c r="C108" t="s">
+        <v>22</v>
+      </c>
+      <c r="D108">
+        <v>2</v>
+      </c>
+      <c r="E108" t="s">
+        <v>34</v>
+      </c>
+      <c r="F108" t="s">
+        <v>348</v>
+      </c>
+      <c r="G108" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A109" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="B109" t="s">
+        <v>16</v>
+      </c>
+      <c r="C109" t="s">
+        <v>17</v>
+      </c>
+      <c r="D109">
+        <v>2</v>
+      </c>
+      <c r="E109" t="s">
+        <v>34</v>
+      </c>
+      <c r="F109" t="s">
+        <v>351</v>
+      </c>
+      <c r="G109" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
@@ -4720,24 +4891,24 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>295</v>
+      </c>
+      <c r="B15" t="s">
         <v>296</v>
-      </c>
-      <c r="B15" t="s">
-        <v>297</v>
       </c>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>297</v>
+      </c>
+      <c r="B16" t="s">
         <v>298</v>
-      </c>
-      <c r="B16" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -4745,7 +4916,7 @@
         <v>43</v>
       </c>
       <c r="B17" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
     </row>
   </sheetData>
